--- a/MuhJauharParidi/DataMuhJauharParidi.xlsx
+++ b/MuhJauharParidi/DataMuhJauharParidi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\MuhJauharParidi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693B1ABC-16AD-4389-9B2F-2EEC564A9DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A6CB4-D459-4B72-AAD9-BC1D01D0BB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83DF5261-C01D-48FA-BF8E-94587DEA27DC}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83DF5261-C01D-48FA-BF8E-94587DEA27DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,133 +25,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>MARIANI</t>
-  </si>
-  <si>
-    <t>5203054107850987</t>
-  </si>
-  <si>
-    <t>EMA SEPTA</t>
-  </si>
-  <si>
-    <t>5203126811030004</t>
-  </si>
-  <si>
-    <t>SAEPUDDIN</t>
-  </si>
-  <si>
-    <t>5203133112800111</t>
-  </si>
-  <si>
-    <t>ASIP</t>
-  </si>
-  <si>
-    <t>5203093112760280</t>
-  </si>
-  <si>
-    <t>MUSLIHUDIN</t>
-  </si>
-  <si>
-    <t>5203090107790489</t>
-  </si>
-  <si>
-    <t>RIMA MULIATI</t>
-  </si>
-  <si>
-    <t>5203095205840003</t>
-  </si>
-  <si>
-    <t>DOWENTA ANUGERAH</t>
-  </si>
-  <si>
-    <t>5203091110060006</t>
-  </si>
-  <si>
-    <t>HADI SUHARSA</t>
-  </si>
-  <si>
-    <t>5203091805750003</t>
-  </si>
-  <si>
-    <t>MARSHA ALIFANABIL</t>
-  </si>
-  <si>
-    <t>5203095710040004</t>
-  </si>
-  <si>
-    <t>AMAQ MASITAH</t>
-  </si>
-  <si>
-    <t>5203093112540028</t>
-  </si>
-  <si>
-    <t>SAHARUDIN</t>
-  </si>
-  <si>
-    <t>5203092706810001</t>
-  </si>
-  <si>
-    <t>SAHRAH</t>
-  </si>
-  <si>
-    <t>5203094107770925</t>
-  </si>
-  <si>
-    <t>M. TEZAR ZAMAN</t>
-  </si>
-  <si>
-    <t>5203090606030001</t>
-  </si>
-  <si>
-    <t>IKA AZINDA</t>
-  </si>
-  <si>
-    <t>5203094107810602</t>
-  </si>
-  <si>
-    <t>SUHERMAN</t>
-  </si>
-  <si>
-    <t>5203093112850194</t>
-  </si>
-  <si>
-    <t>MURNIATI</t>
-  </si>
-  <si>
-    <t>5203094810870003</t>
-  </si>
-  <si>
-    <t>JALALUDIN</t>
-  </si>
-  <si>
-    <t>5203093112760264</t>
-  </si>
-  <si>
-    <t>AMAQ. MUSTAKIM</t>
-  </si>
-  <si>
-    <t>5203093112710212</t>
-  </si>
-  <si>
-    <t>KAPTIAH</t>
-  </si>
-  <si>
-    <t>5203095006780008</t>
-  </si>
-  <si>
-    <t>ABDULLATIP</t>
-  </si>
-  <si>
-    <t>5203133112920168</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>RAUDATUL JANNAH</t>
+  </si>
+  <si>
+    <t>AQ. ROHATI</t>
+  </si>
+  <si>
+    <t>5203133112550204</t>
+  </si>
+  <si>
+    <t>SAMSUL HADI</t>
+  </si>
+  <si>
+    <t>5203133112820038</t>
+  </si>
+  <si>
+    <t>NUR ASRI ROMDIANA</t>
+  </si>
+  <si>
+    <t>5203075511960005</t>
+  </si>
+  <si>
+    <t>SRI</t>
+  </si>
+  <si>
+    <t>5203135608970002</t>
+  </si>
+  <si>
+    <t>ZURRIYATUN</t>
+  </si>
+  <si>
+    <t>5203136303950003</t>
+  </si>
+  <si>
+    <t>SRI HAWRATI</t>
+  </si>
+  <si>
+    <t>5203095406860002</t>
+  </si>
+  <si>
+    <t>H. SAPOAN</t>
+  </si>
+  <si>
+    <t>5203130101760002</t>
+  </si>
+  <si>
+    <t>DINA MALIKAH</t>
+  </si>
+  <si>
+    <t>5203134107870635</t>
+  </si>
+  <si>
+    <t>NISA ALISTIANA</t>
+  </si>
+  <si>
+    <t>5203135011000003</t>
+  </si>
+  <si>
+    <t>SAHRUDIN</t>
+  </si>
+  <si>
+    <t>5203130107780473</t>
+  </si>
+  <si>
+    <t>MUNAWARAH</t>
+  </si>
+  <si>
+    <t>5203134108770005</t>
+  </si>
+  <si>
+    <t>AHMAD ZUBAERI</t>
+  </si>
+  <si>
+    <t>5203132007970002</t>
+  </si>
+  <si>
+    <t>SUMIANI</t>
+  </si>
+  <si>
+    <t>5203097112720066</t>
+  </si>
+  <si>
+    <t>HULLATURROI</t>
+  </si>
+  <si>
+    <t>5203134705990005</t>
+  </si>
+  <si>
+    <t>5203137112960017</t>
+  </si>
+  <si>
+    <t>SITI ROSIDA</t>
+  </si>
+  <si>
+    <t>5203095708980009</t>
+  </si>
+  <si>
+    <t>INAH</t>
+  </si>
+  <si>
+    <t>5203096907910003</t>
+  </si>
+  <si>
+    <t>MURNIASIH</t>
+  </si>
+  <si>
+    <t>5203097112830040</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,16 +154,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,36 +198,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF505050"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF505050"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF505050"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF505050"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,236 +523,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1174C95-6B8C-41D9-A2DA-A61531A667D6}">
-  <dimension ref="A2:C21"/>
+  <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>172</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>173</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>174</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>175</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>176</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>177</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>178</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>179</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>180</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>181</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>182</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>183</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>184</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>185</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>186</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>187</v>
-      </c>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>188</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>189</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>190</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>191</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/MuhJauharParidi/DataMuhJauharParidi.xlsx
+++ b/MuhJauharParidi/DataMuhJauharParidi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\MuhJauharParidi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A6CB4-D459-4B72-AAD9-BC1D01D0BB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D5C7C7-D1B2-4F50-84AA-104C8C583E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83DF5261-C01D-48FA-BF8E-94587DEA27DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{83DF5261-C01D-48FA-BF8E-94587DEA27DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,114 +25,834 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="276">
   <si>
     <t>RAUDATUL JANNAH</t>
   </si>
   <si>
-    <t>AQ. ROHATI</t>
-  </si>
-  <si>
-    <t>5203133112550204</t>
-  </si>
-  <si>
-    <t>SAMSUL HADI</t>
-  </si>
-  <si>
-    <t>5203133112820038</t>
-  </si>
-  <si>
-    <t>NUR ASRI ROMDIANA</t>
-  </si>
-  <si>
-    <t>5203075511960005</t>
-  </si>
-  <si>
-    <t>SRI</t>
-  </si>
-  <si>
-    <t>5203135608970002</t>
-  </si>
-  <si>
-    <t>ZURRIYATUN</t>
-  </si>
-  <si>
-    <t>5203136303950003</t>
-  </si>
-  <si>
-    <t>SRI HAWRATI</t>
-  </si>
-  <si>
-    <t>5203095406860002</t>
-  </si>
-  <si>
-    <t>H. SAPOAN</t>
-  </si>
-  <si>
-    <t>5203130101760002</t>
-  </si>
-  <si>
-    <t>DINA MALIKAH</t>
-  </si>
-  <si>
-    <t>5203134107870635</t>
-  </si>
-  <si>
-    <t>NISA ALISTIANA</t>
-  </si>
-  <si>
-    <t>5203135011000003</t>
-  </si>
-  <si>
-    <t>SAHRUDIN</t>
-  </si>
-  <si>
-    <t>5203130107780473</t>
-  </si>
-  <si>
-    <t>MUNAWARAH</t>
-  </si>
-  <si>
-    <t>5203134108770005</t>
-  </si>
-  <si>
-    <t>AHMAD ZUBAERI</t>
-  </si>
-  <si>
-    <t>5203132007970002</t>
-  </si>
-  <si>
-    <t>SUMIANI</t>
-  </si>
-  <si>
-    <t>5203097112720066</t>
-  </si>
-  <si>
-    <t>HULLATURROI</t>
-  </si>
-  <si>
-    <t>5203134705990005</t>
-  </si>
-  <si>
-    <t>5203137112960017</t>
-  </si>
-  <si>
-    <t>SITI ROSIDA</t>
-  </si>
-  <si>
-    <t>5203095708980009</t>
-  </si>
-  <si>
-    <t>INAH</t>
-  </si>
-  <si>
-    <t>5203096907910003</t>
-  </si>
-  <si>
-    <t>MURNIASIH</t>
-  </si>
-  <si>
-    <t>5203097112830040</t>
+    <t>MIFTAHURRAHMAN</t>
+  </si>
+  <si>
+    <t>5203133112880160</t>
+  </si>
+  <si>
+    <t>NURHAYATI</t>
+  </si>
+  <si>
+    <t>5203074107890790</t>
+  </si>
+  <si>
+    <t>EVA SUSANTI</t>
+  </si>
+  <si>
+    <t>5203134408920004</t>
+  </si>
+  <si>
+    <t>ABDUL QUDUS</t>
+  </si>
+  <si>
+    <t>5203130207910003</t>
+  </si>
+  <si>
+    <t>MUSTAFA</t>
+  </si>
+  <si>
+    <t>5203133112650180</t>
+  </si>
+  <si>
+    <t>HIZBUL</t>
+  </si>
+  <si>
+    <t>5203130304800002</t>
+  </si>
+  <si>
+    <t>JUSMIATUN</t>
+  </si>
+  <si>
+    <t>5203097112910217</t>
+  </si>
+  <si>
+    <t>GASTALANI</t>
+  </si>
+  <si>
+    <t>5203130706760001</t>
+  </si>
+  <si>
+    <t>SALUHI</t>
+  </si>
+  <si>
+    <t>5203137112730225</t>
+  </si>
+  <si>
+    <t>LALU AGUS</t>
+  </si>
+  <si>
+    <t>5203131508990007</t>
+  </si>
+  <si>
+    <t>HAPIPI</t>
+  </si>
+  <si>
+    <t>5203130803850001</t>
+  </si>
+  <si>
+    <t>YULIATI</t>
+  </si>
+  <si>
+    <t>5203134703930004</t>
+  </si>
+  <si>
+    <t>AYAN</t>
+  </si>
+  <si>
+    <t>5203094107300094</t>
+  </si>
+  <si>
+    <t>HARIDAH</t>
+  </si>
+  <si>
+    <t>5203137112820221</t>
+  </si>
+  <si>
+    <t>SELAMET HARIADI</t>
+  </si>
+  <si>
+    <t>5203133112870164</t>
+  </si>
+  <si>
+    <t>KAYANI</t>
+  </si>
+  <si>
+    <t>5202044107821282</t>
+  </si>
+  <si>
+    <t>INAQ HAERUDIN</t>
+  </si>
+  <si>
+    <t>5203137112650032</t>
+  </si>
+  <si>
+    <t>NURUDIN</t>
+  </si>
+  <si>
+    <t>5203133112610108</t>
+  </si>
+  <si>
+    <t>SUPARLAN</t>
+  </si>
+  <si>
+    <t>5203130704870003</t>
+  </si>
+  <si>
+    <t>SELAMET</t>
+  </si>
+  <si>
+    <t>5203130107850511</t>
+  </si>
+  <si>
+    <t>ROYA</t>
+  </si>
+  <si>
+    <t>5203135012830004</t>
+  </si>
+  <si>
+    <t>RENA RUSMIATI</t>
+  </si>
+  <si>
+    <t>5203095904010003</t>
+  </si>
+  <si>
+    <t>SITI ATIKAH</t>
+  </si>
+  <si>
+    <t>5203095511030003</t>
+  </si>
+  <si>
+    <t>ISNAHUDIN</t>
+  </si>
+  <si>
+    <t>5203091708800005</t>
+  </si>
+  <si>
+    <t>FATIMATUZZAHRAH</t>
+  </si>
+  <si>
+    <t>5203096010880003</t>
+  </si>
+  <si>
+    <t>MILE'</t>
+  </si>
+  <si>
+    <t>5203090107670291</t>
+  </si>
+  <si>
+    <t>KERSA</t>
+  </si>
+  <si>
+    <t>5203094107670307</t>
+  </si>
+  <si>
+    <t>HENDRI</t>
+  </si>
+  <si>
+    <t>5203093101770001</t>
+  </si>
+  <si>
+    <t>SAHIR</t>
+  </si>
+  <si>
+    <t>5203093112550091</t>
+  </si>
+  <si>
+    <t>UCI</t>
+  </si>
+  <si>
+    <t>5203097112600113</t>
+  </si>
+  <si>
+    <t>SRI NINGSIH</t>
+  </si>
+  <si>
+    <t>5203096010890001</t>
+  </si>
+  <si>
+    <t>EMA LIANA</t>
+  </si>
+  <si>
+    <t>5203095505030003</t>
+  </si>
+  <si>
+    <t>KADRI</t>
+  </si>
+  <si>
+    <t>5203093112840395</t>
+  </si>
+  <si>
+    <t>NURHANI SATUN</t>
+  </si>
+  <si>
+    <t>5203095310900003</t>
+  </si>
+  <si>
+    <t>REMBUN</t>
+  </si>
+  <si>
+    <t>5203094107270051</t>
+  </si>
+  <si>
+    <t>SUHIRMAN</t>
+  </si>
+  <si>
+    <t>5203133112830042</t>
+  </si>
+  <si>
+    <t>FITINI BAYASARI BAID</t>
+  </si>
+  <si>
+    <t>5203134107880402</t>
+  </si>
+  <si>
+    <t>BUSSARI</t>
+  </si>
+  <si>
+    <t>5203130102870004</t>
+  </si>
+  <si>
+    <t>JUNAEDI</t>
+  </si>
+  <si>
+    <t>5203093112880042</t>
+  </si>
+  <si>
+    <t>MARNI BT. SAHIR</t>
+  </si>
+  <si>
+    <t>5203097112770288</t>
+  </si>
+  <si>
+    <t>LINA RESPIANA</t>
+  </si>
+  <si>
+    <t>5203135010970001</t>
+  </si>
+  <si>
+    <t>SAFNI</t>
+  </si>
+  <si>
+    <t>5203134701770002</t>
+  </si>
+  <si>
+    <t>M. KHATAMI AZIZ</t>
+  </si>
+  <si>
+    <t>5203132206980007</t>
+  </si>
+  <si>
+    <t>RIAMSAH</t>
+  </si>
+  <si>
+    <t>5203090107040125</t>
+  </si>
+  <si>
+    <t>FATIMAH</t>
+  </si>
+  <si>
+    <t>5203094107921007</t>
+  </si>
+  <si>
+    <t>L. FAJRI</t>
+  </si>
+  <si>
+    <t>5203133112010031</t>
+  </si>
+  <si>
+    <t>NURALAM</t>
+  </si>
+  <si>
+    <t>5203133112710145</t>
+  </si>
+  <si>
+    <t>NIKMAH</t>
+  </si>
+  <si>
+    <t>5203137112550084</t>
+  </si>
+  <si>
+    <t>PASILAWATI</t>
+  </si>
+  <si>
+    <t>5203136202050002</t>
+  </si>
+  <si>
+    <t>INAQ HERMAN</t>
+  </si>
+  <si>
+    <t>5203134107600460</t>
+  </si>
+  <si>
+    <t>SRI WASNIATI</t>
+  </si>
+  <si>
+    <t>5203134811890003</t>
+  </si>
+  <si>
+    <t>WARDATUL INTIHAN</t>
+  </si>
+  <si>
+    <t>5203134510790001</t>
+  </si>
+  <si>
+    <t>KARTINI</t>
+  </si>
+  <si>
+    <t>5203135111830003</t>
+  </si>
+  <si>
+    <t>MOH. NIRWAN</t>
+  </si>
+  <si>
+    <t>5203131303000004</t>
+  </si>
+  <si>
+    <t>KJANNATUL MAKWA</t>
+  </si>
+  <si>
+    <t>5203135506030003</t>
+  </si>
+  <si>
+    <t>MARZUKI</t>
+  </si>
+  <si>
+    <t>5203130507820015</t>
+  </si>
+  <si>
+    <t>ASIMUDIN</t>
+  </si>
+  <si>
+    <t>5203091205800004</t>
+  </si>
+  <si>
+    <t>MISRIYANTI</t>
+  </si>
+  <si>
+    <t>5203094107821740</t>
+  </si>
+  <si>
+    <t>SIMAN</t>
+  </si>
+  <si>
+    <t>5203090107570273</t>
+  </si>
+  <si>
+    <t>UNA</t>
+  </si>
+  <si>
+    <t>5203094107670336</t>
+  </si>
+  <si>
+    <t>5203095005960005</t>
+  </si>
+  <si>
+    <t>H. HASANUDDIN</t>
+  </si>
+  <si>
+    <t>5203093112600181</t>
+  </si>
+  <si>
+    <t>LATIPATUT THOYIBAH</t>
+  </si>
+  <si>
+    <t>5203095610990002</t>
+  </si>
+  <si>
+    <t>DEWI HARTANTI</t>
+  </si>
+  <si>
+    <t>5203094107980310</t>
+  </si>
+  <si>
+    <t>ASMAN</t>
+  </si>
+  <si>
+    <t>5203090107970146</t>
+  </si>
+  <si>
+    <t>HALIDI</t>
+  </si>
+  <si>
+    <t>5203093012480010</t>
+  </si>
+  <si>
+    <t>NA'AH</t>
+  </si>
+  <si>
+    <t>5203095710760001</t>
+  </si>
+  <si>
+    <t>NASRUDIN</t>
+  </si>
+  <si>
+    <t>5203090101000033</t>
+  </si>
+  <si>
+    <t>JAPRI</t>
+  </si>
+  <si>
+    <t>5203091509870002</t>
+  </si>
+  <si>
+    <t>PAUZAN AZIMA</t>
+  </si>
+  <si>
+    <t>5203093112750268</t>
+  </si>
+  <si>
+    <t>MUHAEMI</t>
+  </si>
+  <si>
+    <t>5203090107700471</t>
+  </si>
+  <si>
+    <t>SURIANI</t>
+  </si>
+  <si>
+    <t>5203175507800002</t>
+  </si>
+  <si>
+    <t>5203137112790121</t>
+  </si>
+  <si>
+    <t>SALAMAN NULPARISI</t>
+  </si>
+  <si>
+    <t>5203133112010030</t>
+  </si>
+  <si>
+    <t>INAQ NURUL AINI</t>
+  </si>
+  <si>
+    <t>5203134107650362</t>
+  </si>
+  <si>
+    <t>MUH. JUHAIDI</t>
+  </si>
+  <si>
+    <t>5203130602880002</t>
+  </si>
+  <si>
+    <t>LAELATUL QADRIAH</t>
+  </si>
+  <si>
+    <t>5203137112990070</t>
+  </si>
+  <si>
+    <t>AHMAD SETIAWAN</t>
+  </si>
+  <si>
+    <t>5203131611840001</t>
+  </si>
+  <si>
+    <t>MAHFUZIAH</t>
+  </si>
+  <si>
+    <t>5203055804940004</t>
+  </si>
+  <si>
+    <t>SAHANUDDIN</t>
+  </si>
+  <si>
+    <t>5203131201840001</t>
+  </si>
+  <si>
+    <t>MUHAYYAH</t>
+  </si>
+  <si>
+    <t>5203135503850003</t>
+  </si>
+  <si>
+    <t>SAMSUDIN</t>
+  </si>
+  <si>
+    <t>5203133112630177</t>
+  </si>
+  <si>
+    <t>LALU MURNIAH</t>
+  </si>
+  <si>
+    <t>5203133112810108</t>
+  </si>
+  <si>
+    <t>NIRUN</t>
+  </si>
+  <si>
+    <t>5203137112830137</t>
+  </si>
+  <si>
+    <t>MARSUDIN</t>
+  </si>
+  <si>
+    <t>5203131504970003</t>
+  </si>
+  <si>
+    <t>SAUPI</t>
+  </si>
+  <si>
+    <t>5203175705950004</t>
+  </si>
+  <si>
+    <t>MAHSAN M</t>
+  </si>
+  <si>
+    <t>5203141212820011</t>
+  </si>
+  <si>
+    <t>WARNI MUKTI</t>
+  </si>
+  <si>
+    <t>5203137112830018</t>
+  </si>
+  <si>
+    <t>SUHARTO</t>
+  </si>
+  <si>
+    <t>5203130707870007</t>
+  </si>
+  <si>
+    <t>SITI FATIMAH</t>
+  </si>
+  <si>
+    <t>5203137112890172</t>
+  </si>
+  <si>
+    <t>MUH. SAHDI</t>
+  </si>
+  <si>
+    <t>5203130107900566</t>
+  </si>
+  <si>
+    <t>HAYANI</t>
+  </si>
+  <si>
+    <t>5203085903910002</t>
+  </si>
+  <si>
+    <t>MAEMUNAH</t>
+  </si>
+  <si>
+    <t>5203137112820263</t>
+  </si>
+  <si>
+    <t>AQ,ROFI'I</t>
+  </si>
+  <si>
+    <t>5203132010730002</t>
+  </si>
+  <si>
+    <t>ROSIDI</t>
+  </si>
+  <si>
+    <t>5203131610880001</t>
+  </si>
+  <si>
+    <t>BAIQ SOPIAH</t>
+  </si>
+  <si>
+    <t>5203134201920001</t>
+  </si>
+  <si>
+    <t>MULYADI</t>
+  </si>
+  <si>
+    <t>5203131011850016</t>
+  </si>
+  <si>
+    <t>MAHMULUDIN</t>
+  </si>
+  <si>
+    <t>5203130704040001</t>
+  </si>
+  <si>
+    <t>NURSIDAH</t>
+  </si>
+  <si>
+    <t>5203130202730003</t>
+  </si>
+  <si>
+    <t>MULIATI</t>
+  </si>
+  <si>
+    <t>5203137112810057</t>
+  </si>
+  <si>
+    <t>MARDIANA</t>
+  </si>
+  <si>
+    <t>5203133012680002</t>
+  </si>
+  <si>
+    <t>MUHSIN</t>
+  </si>
+  <si>
+    <t>5203133112830044</t>
+  </si>
+  <si>
+    <t>KADARIAH</t>
+  </si>
+  <si>
+    <t>5203135910850002</t>
+  </si>
+  <si>
+    <t>SYAMSUL HAKIM</t>
+  </si>
+  <si>
+    <t>5203131509040001</t>
+  </si>
+  <si>
+    <t>AQ. SAENAH</t>
+  </si>
+  <si>
+    <t>5203133112690215</t>
+  </si>
+  <si>
+    <t>IMAT</t>
+  </si>
+  <si>
+    <t>5203137012700017</t>
+  </si>
+  <si>
+    <t>NURHASANAH</t>
+  </si>
+  <si>
+    <t>5203135010050002</t>
+  </si>
+  <si>
+    <t>AHMAD</t>
+  </si>
+  <si>
+    <t>5203170107650689</t>
+  </si>
+  <si>
+    <t>MASRIJUDIN</t>
+  </si>
+  <si>
+    <t>5203130705900003</t>
+  </si>
+  <si>
+    <t>SITI ROHANI</t>
+  </si>
+  <si>
+    <t>5203174509970006</t>
+  </si>
+  <si>
+    <t>NURHADI RAHMAN</t>
+  </si>
+  <si>
+    <t>5203131608810003</t>
+  </si>
+  <si>
+    <t>HENDRA HARDIANSYAH</t>
+  </si>
+  <si>
+    <t>5203092608870001</t>
+  </si>
+  <si>
+    <t>LALU ANGGI REZKI</t>
+  </si>
+  <si>
+    <t>5203092112960002</t>
+  </si>
+  <si>
+    <t>HERMAN</t>
+  </si>
+  <si>
+    <t>5203090706890009</t>
+  </si>
+  <si>
+    <t>IJIM</t>
+  </si>
+  <si>
+    <t>ZAENAP</t>
+  </si>
+  <si>
+    <t>5203094107650347</t>
+  </si>
+  <si>
+    <t>AHMAD RAMEDAN</t>
+  </si>
+  <si>
+    <t>5203091112010009</t>
+  </si>
+  <si>
+    <t>MAWARDI</t>
+  </si>
+  <si>
+    <t>5203090107760780</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>5203091808880005</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>5203094107960877</t>
+  </si>
+  <si>
+    <t>SALMAN</t>
+  </si>
+  <si>
+    <t>5203090107790802</t>
+  </si>
+  <si>
+    <t>ISNAENI</t>
+  </si>
+  <si>
+    <t>5203094107821262</t>
+  </si>
+  <si>
+    <t>SOEKARDI</t>
+  </si>
+  <si>
+    <t>5203090102510002</t>
+  </si>
+  <si>
+    <t>HULDIAH</t>
+  </si>
+  <si>
+    <t>5203094701750004</t>
+  </si>
+  <si>
+    <t>SUPARMAN</t>
+  </si>
+  <si>
+    <t>5203092106030002</t>
+  </si>
+  <si>
+    <t>SUDIRMAN</t>
+  </si>
+  <si>
+    <t>5203092106030003</t>
+  </si>
+  <si>
+    <t>NASARIAH</t>
+  </si>
+  <si>
+    <t>5203094107750975</t>
+  </si>
+  <si>
+    <t>EKA SATRIAWAN</t>
+  </si>
+  <si>
+    <t>5203091108930002</t>
+  </si>
+  <si>
+    <t>AMAQ ELMI</t>
+  </si>
+  <si>
+    <t>5203091212660004</t>
+  </si>
+  <si>
+    <t>TINA MAYA</t>
+  </si>
+  <si>
+    <t>5203096905070004</t>
+  </si>
+  <si>
+    <t>SARIPAH</t>
+  </si>
+  <si>
+    <t>5203094107580172</t>
+  </si>
+  <si>
+    <t>LL. JALAL YASIN</t>
+  </si>
+  <si>
+    <t>5203092404860002</t>
+  </si>
+  <si>
+    <t>BQ. ANDARIAH</t>
+  </si>
+  <si>
+    <t>5203095105750007</t>
+  </si>
+  <si>
+    <t>HERISANDI</t>
+  </si>
+  <si>
+    <t>5203091105940006</t>
+  </si>
+  <si>
+    <t>WIRDATUL WIJRI</t>
+  </si>
+  <si>
+    <t>5203136408950001</t>
+  </si>
+  <si>
+    <t>KAYU</t>
+  </si>
+  <si>
+    <t>5203093112440039</t>
+  </si>
+  <si>
+    <t>UTER</t>
+  </si>
+  <si>
+    <t>5203094107570531</t>
+  </si>
+  <si>
+    <t>OGI SOPIANDI</t>
+  </si>
+  <si>
+    <t>5203090208980005</t>
+  </si>
+  <si>
+    <t>ALI GITA</t>
+  </si>
+  <si>
+    <t>5203093112700818</t>
   </si>
 </sst>
 </file>
@@ -161,7 +881,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +891,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,13 +928,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,160 +1253,1545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1174C95-6B8C-41D9-A2DA-A61531A667D6}">
-  <dimension ref="B2:C19"/>
+  <dimension ref="A2:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>26</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>30</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>31</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>32</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>33</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>34</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>35</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>36</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>37</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>38</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>39</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>40</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>41</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>44</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>45</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>46</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>47</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>48</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>49</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>50</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>51</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>52</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>53</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>54</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>55</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>56</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>57</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>58</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>59</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>60</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>61</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>62</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>63</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>64</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>65</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>66</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>67</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>68</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>69</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>70</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>71</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>72</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
+      <c r="C62" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>73</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>74</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>75</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>76</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>77</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>78</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>79</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>80</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>81</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>82</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>83</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>84</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>85</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>86</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>87</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>88</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>89</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>90</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>91</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>92</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>93</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>94</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>95</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>96</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>97</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>98</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>99</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>100</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>101</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>102</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>103</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>104</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>105</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>106</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>107</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>108</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>109</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>110</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>111</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>112</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>113</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>114</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>115</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>116</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>117</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>118</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>119</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>120</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>121</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>122</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>123</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>124</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>125</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>126</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>127</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>128</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>129</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>130</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>131</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>132</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>133</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>134</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>135</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>136</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>137</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>138</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>139</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>140</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>141</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>142</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>143</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>144</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>145</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>146</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>147</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>148</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>149</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>150</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
